--- a/test/input/CompanyValuesAndNotes.xlsx
+++ b/test/input/CompanyValuesAndNotes.xlsx
@@ -577,17 +577,17 @@
   </sheetPr>
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A28" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="C41" activeCellId="0" pane="topLeft" sqref="C41"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+      <selection activeCell="C26" activeCellId="0" pane="topLeft" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2235294117647"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5882352941176"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2352941176471"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="1">
@@ -1258,11 +1258,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="C41 A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="C26 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.41960784313726"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.42352941176471"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1283,21 +1283,21 @@
   <dimension ref="B1:AD3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <pane activePane="topRight" topLeftCell="A1" xSplit="1467" ySplit="0"/>
+      <pane activePane="topRight" topLeftCell="A1" xSplit="1289" ySplit="0"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A4" activeCellId="1" pane="topRight" sqref="C41 A4"/>
+      <selection activeCell="A4" activeCellId="1" pane="topRight" sqref="C26 A4"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.60392156862745"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9529411764706"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4627450980392"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.956862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4705882352941"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.93333333333333"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9529411764706"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.94117647058824"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.956862745098"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>

--- a/test/input/CompanyValuesAndNotes.xlsx
+++ b/test/input/CompanyValuesAndNotes.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="179" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="63" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="DOC_SRC" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Executives" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Executives" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>Input Value</t>
   </si>
@@ -57,73 +58,91 @@
     <t>http://anotherlink.com</t>
   </si>
   <si>
+    <t>Doc Type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ExecDB</t>
+  </si>
+  <si>
     <t>Disclosure Fiscal Year End</t>
   </si>
   <si>
-    <t>Filing Dates</t>
+    <t>DEF 14A</t>
   </si>
   <si>
     <t>10-K</t>
   </si>
   <si>
-    <t>DEF 14A</t>
-  </si>
-  <si>
     <t>OTHER DOC 1</t>
   </si>
   <si>
+    <t>Select Doc Type</t>
+  </si>
+  <si>
+    <t>OTHER DOC 2</t>
+  </si>
+  <si>
+    <t>OTHER DOC 3</t>
+  </si>
+  <si>
+    <t>OTHER DOC 4</t>
+  </si>
+  <si>
+    <t>OTHER DOC 5</t>
+  </si>
+  <si>
+    <t>Enter Doc Type if no match</t>
+  </si>
+  <si>
+    <t>OTHER DOC 6</t>
+  </si>
+  <si>
+    <t>OTHER DOC 7</t>
+  </si>
+  <si>
+    <t>OTHER DOC 8</t>
+  </si>
+  <si>
+    <t>ExecDB(-1)</t>
+  </si>
+  <si>
+    <t>ExecDB(-2)</t>
+  </si>
+  <si>
+    <t>Grant Types</t>
+  </si>
+  <si>
+    <t>Exec Data</t>
+  </si>
+  <si>
+    <t>Cash Compensation ($000)</t>
+  </si>
+  <si>
+    <t>Equity Comp Value ($000)</t>
+  </si>
+  <si>
+    <t>Carried-Interest</t>
+  </si>
+  <si>
+    <t>Current Year</t>
+  </si>
+  <si>
+    <t>New 8-K Data</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Short Title</t>
+  </si>
+  <si>
     <t>Functional Match</t>
-  </si>
-  <si>
-    <t>OTHER DOC 2</t>
-  </si>
-  <si>
-    <t>OTHER DOC 3</t>
-  </si>
-  <si>
-    <t>OTHER DOC 4</t>
-  </si>
-  <si>
-    <t>OTHER DOC 5</t>
-  </si>
-  <si>
-    <t>Enter Doc Type if no match</t>
-  </si>
-  <si>
-    <t>OTHER DOC 6</t>
-  </si>
-  <si>
-    <t>OTHER DOC 7</t>
-  </si>
-  <si>
-    <t>OTHER DOC 8</t>
-  </si>
-  <si>
-    <t>Exec Data</t>
-  </si>
-  <si>
-    <t>Cash Compensation ($000)</t>
-  </si>
-  <si>
-    <t>Equity Comp Value ($000)</t>
-  </si>
-  <si>
-    <t>Carried-Interest</t>
-  </si>
-  <si>
-    <t>Current Year</t>
-  </si>
-  <si>
-    <t>New 8-K Data</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Short Title</t>
   </si>
   <si>
     <t>Founder</t>
@@ -195,7 +214,7 @@
     <numFmt formatCode="M/D/YY;@" numFmtId="165"/>
     <numFmt formatCode="#,##0" numFmtId="166"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -237,11 +256,27 @@
       <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
+      <color rgb="00DD0806"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
       <color rgb="00000000"/>
       <sz val="12"/>
     </font>
+    <font>
+      <name val="Gill Sans MT"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,13 +295,136 @@
         <bgColor rgb="00FFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0099CCFF"/>
+        <bgColor rgb="00CCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="003C3C3C"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="003C3C3C"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="003C3C3C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="003C3C3C"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="003C3C3C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="thick">
+        <color rgb="003C3C3C"/>
+      </right>
+      <top style="thick">
+        <color rgb="003C3C3C"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="003C3C3C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="003C3C3C"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="003C3C3C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="medium">
+        <color rgb="003C3C3C"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="003C3C3C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="medium">
+        <color rgb="003C3C3C"/>
+      </right>
+      <top style="medium">
+        <color rgb="003C3C3C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="003C3C3C"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="003C3C3C"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="003C3C3C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="003C3C3C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="medium">
+        <color rgb="003C3C3C"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="003C3C3C"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
@@ -302,22 +460,44 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="35">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="8" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="4" fontId="4" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="12" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -331,7 +511,7 @@
     <indexedColors>
       <rgbColor rgb="00000000"/>
       <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="00DD0806"/>
       <rgbColor rgb="0000FF00"/>
       <rgbColor rgb="000000FF"/>
       <rgbColor rgb="00FCF305"/>
@@ -384,7 +564,7 @@
       <rgbColor rgb="00993300"/>
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="003C3C3C"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -395,19 +575,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="D12" activeCellId="0" pane="topLeft" sqref="D12"/>
+      <selection activeCell="C6" activeCellId="0" pane="topLeft" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.556862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="1">
@@ -423,7 +603,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="2" s="2">
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -431,6 +612,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="3">
+      <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -461,11 +643,7 @@
       <c r="T4" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="5">
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="3"/>
       <c r="T5" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="6">
@@ -474,115 +652,585 @@
       <c r="T6" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="7">
-      <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="T7" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="8">
-      <c r="A8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="9">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
       <c r="T9" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="10">
-      <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
       <c r="T10" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="11">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="23"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
       <c r="T11" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="13">
+      <c r="A13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="14">
+      <c r="A14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="15">
+      <c r="A15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="16">
+      <c r="A16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="17">
+      <c r="A17" s="23"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="18">
+      <c r="A18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="19">
+      <c r="A19" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="20">
+      <c r="A20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="21">
+      <c r="A21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="22"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="23"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="24"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="25"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="26">
+      <c r="A26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="27">
+      <c r="A27" s="19"/>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="28">
+      <c r="A28" s="23"/>
+      <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="13">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="29">
+      <c r="A29" s="23"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="30">
+      <c r="A30" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="31">
+      <c r="A31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="32">
+      <c r="A32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="33">
+      <c r="A33" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="34">
+      <c r="A34" s="23"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="35">
+      <c r="A35" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="36">
+      <c r="A36" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="37">
+      <c r="A37" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="38">
+      <c r="A38" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="39"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="40"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="41">
+      <c r="A41" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="42">
+      <c r="A42" s="19"/>
+      <c r="B42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="43">
+      <c r="A43" s="23"/>
+      <c r="B43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="14">
-      <c r="A14" s="3" t="s">
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="44">
+      <c r="A44" s="23"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="45">
+      <c r="A45" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="46">
+      <c r="A46" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B46" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="47">
+      <c r="A47" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="48">
+      <c r="A48" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="49">
+      <c r="A49" s="23"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="50">
+      <c r="A50" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="51">
+      <c r="A51" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="52">
+      <c r="A52" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="53">
+      <c r="A53" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="54"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="55"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="56">
+      <c r="A56" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="31"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="57">
+      <c r="A57" s="19"/>
+      <c r="B57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="58">
+      <c r="A58" s="23"/>
+      <c r="B58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
-      <c r="T15" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+      <c r="C58" s="20"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="59">
+      <c r="A59" s="23"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="60">
+      <c r="A60" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="61">
+      <c r="A61" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="62">
+      <c r="A62" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B62" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="63">
+      <c r="A63" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="T16" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+      <c r="B63" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="64">
+      <c r="A64" s="23"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="65">
+      <c r="A65" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+      <c r="B65" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="66">
+      <c r="A66" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="T19" s="5"/>
-    </row>
+      <c r="B66" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="26"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="67">
+      <c r="A67" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="68">
+      <c r="A68" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="30"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="69"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="70"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="71"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="72"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="73"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="74"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B13:B16 B30:B33 B45:B48 B60:B63" type="list">
+      <formula1>DOC_SRC!$I$1:$I$15</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink display="http://alink.com" ref="E3" r:id="rId1"/>
     <hyperlink display="http://anotherlink.com" ref="E4" r:id="rId2"/>
@@ -602,188 +1250,213 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.41176470588235"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:AD3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <pane activePane="topRight" topLeftCell="A1" xSplit="2461" ySplit="0"/>
+      <pane activePane="topRight" topLeftCell="A1" xSplit="1675" ySplit="0"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="A4" activeCellId="0" pane="topRight" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.57254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.5921568627451"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4117647058824"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9254901960784"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4588235294118"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.90980392156863"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.92941176470588"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9450980392157"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="1">
-      <c r="B1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
+      <c r="B1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="2">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="3">
-      <c r="B3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="B3" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="C3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="D3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="E3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="F3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="G3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="H3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="I3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="J3" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="11" t="s">
+      <c r="K3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="L3" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="O3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="11" t="s">
+      <c r="P3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Q3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="R3" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="S3" s="34"/>
+      <c r="T3" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="U3" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="V3" s="33" t="s">
         <v>55</v>
+      </c>
+      <c r="W3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" s="33" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/test/input/CompanyValuesAndNotes.xlsx
+++ b/test/input/CompanyValuesAndNotes.xlsx
@@ -348,11 +348,11 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium">
+      <left style="thick">
         <color rgb="003C3C3C"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thick">
         <color rgb="003C3C3C"/>
       </top>
       <bottom/>
@@ -360,7 +360,7 @@
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color rgb="003C3C3C"/>
       </right>
       <top/>
@@ -370,7 +370,7 @@
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thick">
         <color rgb="003C3C3C"/>
       </top>
       <bottom/>
@@ -378,17 +378,17 @@
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color rgb="003C3C3C"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color rgb="003C3C3C"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium">
+      <left style="thick">
         <color rgb="003C3C3C"/>
       </left>
       <right/>
@@ -397,12 +397,12 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium">
+      <left style="thick">
         <color rgb="003C3C3C"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color rgb="003C3C3C"/>
       </bottom>
       <diagonal/>
@@ -411,18 +411,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color rgb="003C3C3C"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color rgb="003C3C3C"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color rgb="003C3C3C"/>
       </bottom>
       <diagonal/>
@@ -478,6 +478,7 @@
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="4" fontId="4" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
@@ -492,7 +493,6 @@
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="4" fontId="4" numFmtId="165" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
@@ -577,17 +577,17 @@
   </sheetPr>
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="C6" activeCellId="0" pane="topLeft" sqref="C6"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A28" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+      <selection activeCell="C41" activeCellId="0" pane="topLeft" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4588235294118"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.556862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="1">
@@ -603,8 +603,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="2" s="2">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -682,33 +681,35 @@
       <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="17" t="n">
+        <v>40971</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
       <c r="T9" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="10">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
       <c r="T10" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="11">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
       <c r="T11" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="12">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3"/>
       <c r="C12" s="14"/>
       <c r="D12" s="13"/>
@@ -716,55 +717,55 @@
       <c r="T12" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="13">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
       <c r="T13" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="14">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
       <c r="T14" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="15">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
       <c r="T15" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="16">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
       <c r="T16" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="17">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="3"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -772,50 +773,50 @@
       <c r="T17" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="18">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
       <c r="T18" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="19">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
       <c r="T19" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="20">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
+      <c r="B20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="21">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
+      <c r="B21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="22"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="23"/>
@@ -828,129 +829,131 @@
       <c r="B26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
+      <c r="C26" s="17" t="n">
+        <v>40971</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="27">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="28">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="29">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="3"/>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
       <c r="E29" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="30">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
+      <c r="B30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="31">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
+      <c r="B31" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="32">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
+      <c r="B32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="33">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
+      <c r="B33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="34">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="3"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="35">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
+      <c r="B35" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="36">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
+      <c r="B36" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="37">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
+      <c r="B37" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="38">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
+      <c r="B38" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="39"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="40"/>
@@ -961,129 +964,131 @@
       <c r="B41" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
+      <c r="C41" s="17" t="n">
+        <v>40971</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="42">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="43">
-      <c r="A43" s="23"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="44">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="3"/>
       <c r="C44" s="14"/>
       <c r="D44" s="13"/>
       <c r="E44" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="45">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
+      <c r="B45" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="46">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
+      <c r="B46" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="47">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
+      <c r="B47" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="48">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
+      <c r="B48" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="49">
-      <c r="A49" s="23"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="3"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="50">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
+      <c r="B50" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="51">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
+      <c r="B51" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="52">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
+      <c r="B52" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="53">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="30"/>
+      <c r="B53" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="54"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="55"/>
@@ -1094,129 +1099,129 @@
       <c r="B56" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="18"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="57">
-      <c r="A57" s="19"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="22"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="58">
-      <c r="A58" s="23"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="59">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="3"/>
       <c r="C59" s="14"/>
       <c r="D59" s="13"/>
       <c r="E59" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="60">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
+      <c r="B60" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="61">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
+      <c r="B61" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="62">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
+      <c r="B62" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="63">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
+      <c r="B63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="64">
-      <c r="A64" s="23"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="3"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="65">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="22"/>
+      <c r="B65" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="66">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="22"/>
+      <c r="B66" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="67">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="22"/>
+      <c r="B67" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="68">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="30"/>
+      <c r="B68" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="69"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="70"/>
@@ -1253,11 +1258,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="C41 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.41176470588235"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.41960784313726"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1278,21 +1283,21 @@
   <dimension ref="B1:AD3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <pane activePane="topRight" topLeftCell="A1" xSplit="1675" ySplit="0"/>
+      <pane activePane="topRight" topLeftCell="A1" xSplit="1467" ySplit="0"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A4" activeCellId="0" pane="topRight" sqref="A4"/>
+      <selection activeCell="A4" activeCellId="1" pane="topRight" sqref="C41 A4"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.5921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.6"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4588235294118"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9529411764706"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4627450980392"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.92941176470588"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.93333333333333"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9529411764706"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>

--- a/test/input/CompanyValuesAndNotes.xlsx
+++ b/test/input/CompanyValuesAndNotes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Input Value</t>
   </si>
@@ -42,6 +42,9 @@
     <t>note ticker</t>
   </si>
   <si>
+    <t>http://alink.com</t>
+  </si>
+  <si>
     <t>Co Name</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
   </si>
   <si>
     <t>note coname</t>
+  </si>
+  <si>
+    <t>http://anotherlink.com</t>
   </si>
   <si>
     <t>Disclosure Fiscal Year End</t>
@@ -392,19 +398,19 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="E5" activeCellId="0" pane="topLeft" sqref="E5"/>
+      <selection activeCell="D12" activeCellId="0" pane="topLeft" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.478431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.6941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1450980392157"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5921568627451"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="1">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -416,7 +422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="2" s="2">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="2" s="2">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -424,7 +430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="3">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -434,143 +440,153 @@
       <c r="D3" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="T3" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="4">
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="T4" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="5">
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6"/>
       <c r="E5" s="7"/>
       <c r="T5" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="6">
       <c r="B6" s="3"/>
       <c r="C6" s="6"/>
       <c r="T6" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="7">
       <c r="B7" s="3"/>
       <c r="C7" s="6"/>
       <c r="T7" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="8">
       <c r="A8" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6"/>
       <c r="T8" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="9">
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6"/>
       <c r="T9" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="10">
       <c r="B10" s="3"/>
       <c r="C10" s="6"/>
       <c r="T10" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="11">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6"/>
       <c r="T11" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="12">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="6"/>
       <c r="T12" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="13">
       <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C13" s="6"/>
       <c r="T13" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="14">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="6"/>
       <c r="T14" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="15">
       <c r="B15" s="3"/>
       <c r="C15" s="6"/>
       <c r="T15" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T16" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T17" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="T18" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9"/>
       <c r="T19" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink display="http://alink.com" ref="E3" r:id="rId1"/>
+    <hyperlink display="http://anotherlink.com" ref="E4" r:id="rId2"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -589,34 +605,34 @@
   <dimension ref="B1:AD3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <pane activePane="topRight" topLeftCell="A1" xSplit="3158" ySplit="0"/>
+      <pane activePane="topRight" topLeftCell="A1" xSplit="2461" ySplit="0"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="A4" activeCellId="0" pane="topRight" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.56078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.57254901960784"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4196078431373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4117647058824"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4392156862745"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.89411764705882"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9058823529412"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.90980392156863"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9254901960784"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="1">
       <c r="B1" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -625,7 +641,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
@@ -639,32 +655,32 @@
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
       <c r="Z1" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
       <c r="AC1" s="10"/>
       <c r="AD1" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="2">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -683,91 +699,91 @@
       <c r="AC2" s="10"/>
       <c r="AD2" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="3">
       <c r="B3" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="W3" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="X3" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/test/input/CompanyValuesAndNotes.xlsx
+++ b/test/input/CompanyValuesAndNotes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="63" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="32" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="DOC_SRC" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
   <si>
     <t>Input Value</t>
   </si>
@@ -31,9 +31,6 @@
     <t>CUSIP</t>
   </si>
   <si>
-    <t>cusip</t>
-  </si>
-  <si>
     <t>Ticker</t>
   </si>
   <si>
@@ -58,61 +55,70 @@
     <t>http://anotherlink.com</t>
   </si>
   <si>
+    <t>Original Currency</t>
+  </si>
+  <si>
+    <t>Currency Conversion Date</t>
+  </si>
+  <si>
     <t>Doc Type</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>Grant Types</t>
+  </si>
+  <si>
+    <t>Disclosure Fiscal Year End</t>
+  </si>
+  <si>
+    <t>DEF 14A</t>
+  </si>
+  <si>
+    <t>10-K</t>
+  </si>
+  <si>
+    <t>OTHER DOC 1</t>
+  </si>
+  <si>
+    <t>Select Doc Type</t>
+  </si>
+  <si>
+    <t>OTHER DOC 2</t>
+  </si>
+  <si>
+    <t>OTHER DOC 3</t>
+  </si>
+  <si>
+    <t>OTHER DOC 4</t>
+  </si>
+  <si>
+    <t>OTHER DOC 5</t>
+  </si>
+  <si>
+    <t>Enter Doc Type if no match</t>
+  </si>
+  <si>
+    <t>OTHER DOC 6</t>
+  </si>
+  <si>
+    <t>OTHER DOC 7</t>
+  </si>
+  <si>
+    <t>OTHER DOC 8</t>
+  </si>
+  <si>
     <t>ExecDB</t>
   </si>
   <si>
-    <t>Disclosure Fiscal Year End</t>
-  </si>
-  <si>
-    <t>DEF 14A</t>
-  </si>
-  <si>
-    <t>10-K</t>
-  </si>
-  <si>
-    <t>OTHER DOC 1</t>
-  </si>
-  <si>
-    <t>Select Doc Type</t>
-  </si>
-  <si>
-    <t>OTHER DOC 2</t>
-  </si>
-  <si>
-    <t>OTHER DOC 3</t>
-  </si>
-  <si>
-    <t>OTHER DOC 4</t>
-  </si>
-  <si>
-    <t>OTHER DOC 5</t>
-  </si>
-  <si>
-    <t>Enter Doc Type if no match</t>
-  </si>
-  <si>
-    <t>OTHER DOC 6</t>
-  </si>
-  <si>
-    <t>OTHER DOC 7</t>
-  </si>
-  <si>
-    <t>OTHER DOC 8</t>
+    <t>11) 8-K</t>
   </si>
   <si>
     <t>ExecDB(-1)</t>
   </si>
   <si>
     <t>ExecDB(-2)</t>
-  </si>
-  <si>
-    <t>Grant Types</t>
   </si>
   <si>
     <t>Exec Data</t>
@@ -214,7 +220,7 @@
     <numFmt formatCode="M/D/YY;@" numFmtId="165"/>
     <numFmt formatCode="#,##0" numFmtId="166"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -252,20 +258,12 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Gill Sans MT"/>
       <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <color rgb="00DD0806"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Gill Sans MT"/>
@@ -360,15 +358,6 @@
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="thick">
-        <color rgb="003C3C3C"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
       <right/>
       <top style="thick">
         <color rgb="003C3C3C"/>
@@ -392,6 +381,15 @@
         <color rgb="003C3C3C"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="thick">
+        <color rgb="003C3C3C"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -464,35 +462,37 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="8" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="7" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="4" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="166" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
@@ -577,17 +577,17 @@
   </sheetPr>
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="C26" activeCellId="0" pane="topLeft" sqref="C26"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+      <selection activeCell="E4" activeCellId="0" pane="topLeft" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5882352941176"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2352941176471"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.643137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="1">
@@ -606,640 +606,720 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="n">
+        <v>123124123</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="T3" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="4">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="4">
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="T4" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="5">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="6">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="5">
-      <c r="B5" s="3"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="6">
-      <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
-      <c r="T6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="T6" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="T7" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="T8" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="9">
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="T9" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="10">
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="9">
-      <c r="A9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="T11" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="12">
+      <c r="A12" s="12"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="T12" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="13">
+      <c r="A13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="17" t="n">
-        <v>40971</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="T9" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="10">
-      <c r="A10" s="20"/>
-      <c r="B10" s="3" t="s">
+      <c r="B13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="T10" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="11">
-      <c r="A11" s="24"/>
-      <c r="B11" s="3" t="s">
+      <c r="C13" s="4" t="n">
+        <v>41060</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="T13" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="14">
+      <c r="A14" s="23"/>
+      <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="T11" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="12">
-      <c r="A12" s="24"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="13">
-      <c r="A13" s="25" t="s">
+      <c r="C14" s="4" t="n">
+        <v>41162</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="24"/>
+      <c r="T14" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="24"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="16">
+      <c r="A16" s="25"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="27"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="17">
+      <c r="A17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="14">
-      <c r="A14" s="25" t="s">
+      <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="15">
-      <c r="A15" s="25" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="24"/>
+      <c r="T17" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="18">
+      <c r="A18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="T15" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="16">
-      <c r="A16" s="25" t="s">
+      <c r="B18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="24"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="19">
+      <c r="A19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="17">
-      <c r="A17" s="24"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="15"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="18">
-      <c r="A18" s="24" t="s">
+      <c r="B19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="24"/>
+      <c r="T19" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="20">
+      <c r="A20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="21">
+      <c r="A21" s="25"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="22">
+      <c r="A22" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="T18" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="19">
-      <c r="A19" s="24" t="s">
+      <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="20">
-      <c r="A20" s="24" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="23">
+      <c r="A23" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="21">
-      <c r="A21" s="28" t="s">
+      <c r="B23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="24">
+      <c r="A24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="22"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="23"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="24"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="25"/>
+      <c r="B24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="25">
+      <c r="A25" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+    </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="26">
-      <c r="A26" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="17" t="n">
-        <v>40971</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="27">
-      <c r="A27" s="20"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="28">
+      <c r="A28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="28">
-      <c r="A28" s="24"/>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="4" t="n">
+        <v>41060</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="29">
+      <c r="A29" s="23"/>
+      <c r="B29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="29">
-      <c r="A29" s="24"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="4" t="n">
+        <v>41162</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="30">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="31">
-      <c r="A31" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="32">
       <c r="A32" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
+      <c r="B32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>41234</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="33">
       <c r="A33" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="34">
+      <c r="A34" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="34">
-      <c r="A34" s="24"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="15"/>
+      <c r="B34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="35">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="36">
+      <c r="A36" s="25"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="37">
+      <c r="A37" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="36">
-      <c r="A36" s="24" t="s">
+      <c r="B37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="37">
-      <c r="A37" s="24" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="38">
+      <c r="A38" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="38">
-      <c r="A38" s="28" t="s">
+      <c r="B38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="39">
+      <c r="A39" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="39"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="40"/>
+      <c r="B39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="40">
+      <c r="A40" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+    </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="41">
-      <c r="A41" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="17" t="n">
-        <v>40971</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="42">
-      <c r="A42" s="20"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="43">
+      <c r="A43" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="43">
-      <c r="A43" s="24"/>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="4" t="n">
+        <v>41060</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="44">
+      <c r="A44" s="23"/>
+      <c r="B44" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="44">
-      <c r="A44" s="24"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="15"/>
+      <c r="C44" s="4" t="n">
+        <v>40792</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="45">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="23"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="46">
-      <c r="A46" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="23"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="47">
       <c r="A47" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="23"/>
+      <c r="B47" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="48">
       <c r="A48" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="49">
+      <c r="A49" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="49">
-      <c r="A49" s="24"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="15"/>
+      <c r="B49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="50">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="51">
+      <c r="A51" s="25"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="52">
+      <c r="A52" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="51">
-      <c r="A51" s="24" t="s">
+      <c r="B52" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="52">
-      <c r="A52" s="24" t="s">
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="53">
+      <c r="A53" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="53">
-      <c r="A53" s="28" t="s">
+      <c r="B53" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="54">
+      <c r="A54" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="31"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="54"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="55"/>
+      <c r="B54" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="55">
+      <c r="A55" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="31"/>
+    </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="56">
-      <c r="A56" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="19"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="57">
-      <c r="A57" s="20"/>
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="58">
+      <c r="A58" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="58">
-      <c r="A58" s="24"/>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="4" t="n">
+        <v>41060</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="59">
+      <c r="A59" s="23"/>
+      <c r="B59" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="59">
-      <c r="A59" s="24"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="15"/>
+      <c r="C59" s="4" t="n">
+        <v>40424</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="60">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="25"/>
+      <c r="B60" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="23"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="61">
-      <c r="A61" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="62">
       <c r="A62" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="23"/>
+      <c r="B62" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="63">
       <c r="A63" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="64">
+      <c r="A64" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="64">
-      <c r="A64" s="24"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="15"/>
+      <c r="B64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="65">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="66">
+      <c r="A66" s="25"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="67">
+      <c r="A67" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="66">
-      <c r="A66" s="24" t="s">
+      <c r="B67" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="67">
-      <c r="A67" s="24" t="s">
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="68">
+      <c r="A68" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="68">
-      <c r="A68" s="28" t="s">
+      <c r="B68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="28"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="69">
+      <c r="A69" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="31"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="69"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="70"/>
+      <c r="B69" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="70">
+      <c r="A70" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="31"/>
+    </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="71"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="72"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="73"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="74"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B13:B16 B30:B33 B45:B48 B60:B63" type="list">
-      <formula1>DOC_SRC!$I$1:$I$15</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B17:B20 B32:B35 B47:B50 B62:B65" type="list">
+      <formula1>DOC_SRC!$I$1:$I$21</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink display="http://alink.com" ref="E3" r:id="rId1"/>
-    <hyperlink display="http://anotherlink.com" ref="E4" r:id="rId2"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -1258,11 +1338,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="C26 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.42352941176471"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.43921568627451"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1283,34 +1363,34 @@
   <dimension ref="B1:AD3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <pane activePane="topRight" topLeftCell="A1" xSplit="1289" ySplit="0"/>
+      <pane activePane="topRight" topLeftCell="A1" xSplit="993" ySplit="0"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A4" activeCellId="1" pane="topRight" sqref="C26 A4"/>
+      <selection activeCell="A4" activeCellId="0" pane="topRight" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.60392156862745"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.956862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9725490196078"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4901960784314"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.94117647058824"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.956862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.95294117647059"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9725490196078"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="1">
       <c r="B1" s="32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
@@ -1319,7 +1399,7 @@
       <c r="L1" s="32"/>
       <c r="M1" s="32"/>
       <c r="N1" s="32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="32"/>
       <c r="P1" s="32"/>
@@ -1333,7 +1413,7 @@
       <c r="X1" s="32"/>
       <c r="Y1" s="32"/>
       <c r="Z1" s="32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA1" s="32"/>
       <c r="AB1" s="32"/>
@@ -1347,18 +1427,18 @@
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" s="32"/>
       <c r="N2" s="32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" s="32"/>
       <c r="P2" s="32"/>
@@ -1379,89 +1459,89 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="3">
       <c r="B3" s="33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="33" t="s">
+      <c r="M3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>45</v>
-      </c>
       <c r="N3" s="33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S3" s="34"/>
       <c r="T3" s="33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="33" t="s">
-        <v>53</v>
-      </c>
       <c r="X3" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Z3" s="33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB3" s="33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC3" s="33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD3" s="33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/test/input/CompanyValuesAndNotes.xlsx
+++ b/test/input/CompanyValuesAndNotes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="32" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="190" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="DOC_SRC" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="62">
   <si>
     <t>Input Value</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>http://anotherlink.com</t>
-  </si>
-  <si>
-    <t>Original Currency</t>
-  </si>
-  <si>
-    <t>Currency Conversion Date</t>
   </si>
   <si>
     <t>Doc Type</t>
@@ -578,16 +572,16 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="E4" activeCellId="0" pane="topLeft" sqref="E4"/>
+      <selection activeCell="B72" activeCellId="0" pane="topLeft" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.643137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7098039215686"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2823529411765"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="1">
@@ -652,9 +646,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="6">
       <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="3"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -662,9 +654,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="7">
       <c r="A7" s="6"/>
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -697,10 +687,10 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="11">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>1</v>
@@ -720,10 +710,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="13">
       <c r="A13" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>41060</v>
@@ -735,7 +725,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="14">
       <c r="A14" s="23"/>
       <c r="B14" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>41162</v>
@@ -747,7 +737,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="15">
       <c r="A15" s="25"/>
       <c r="B15" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="10"/>
@@ -764,10 +754,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="17">
       <c r="A17" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="10"/>
@@ -776,10 +766,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="18">
       <c r="A18" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="10"/>
@@ -788,10 +778,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="19">
       <c r="A19" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="10"/>
@@ -800,10 +790,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="20">
       <c r="A20" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -818,10 +808,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="22">
       <c r="A22" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -829,10 +819,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="23">
       <c r="A23" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="10"/>
@@ -840,10 +830,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="24">
       <c r="A24" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -851,10 +841,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="25">
       <c r="A25" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -876,10 +866,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="28">
       <c r="A28" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>41060</v>
@@ -890,7 +880,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="29">
       <c r="A29" s="23"/>
       <c r="B29" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>41162</v>
@@ -901,7 +891,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="30">
       <c r="A30" s="25"/>
       <c r="B30" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="10"/>
@@ -916,10 +906,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="32">
       <c r="A32" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>41234</v>
@@ -929,10 +919,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="33">
       <c r="A33" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="10"/>
@@ -940,10 +930,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="34">
       <c r="A34" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="10"/>
@@ -951,10 +941,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="35">
       <c r="A35" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -969,10 +959,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="37">
       <c r="A37" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -980,10 +970,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="38">
       <c r="A38" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="10"/>
@@ -991,10 +981,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="39">
       <c r="A39" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1002,10 +992,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="40">
       <c r="A40" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
@@ -1027,10 +1017,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="43">
       <c r="A43" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>41060</v>
@@ -1041,7 +1031,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="44">
       <c r="A44" s="23"/>
       <c r="B44" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>40792</v>
@@ -1052,7 +1042,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="45">
       <c r="A45" s="25"/>
       <c r="B45" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="10"/>
@@ -1067,10 +1057,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="47">
       <c r="A47" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="10"/>
@@ -1078,10 +1068,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="48">
       <c r="A48" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="10"/>
@@ -1089,10 +1079,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="49">
       <c r="A49" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="10"/>
@@ -1100,10 +1090,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="50">
       <c r="A50" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -1118,10 +1108,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="52">
       <c r="A52" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -1129,10 +1119,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="53">
       <c r="A53" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="10"/>
@@ -1140,10 +1130,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="54">
       <c r="A54" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -1151,10 +1141,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="55">
       <c r="A55" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
@@ -1176,10 +1166,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="58">
       <c r="A58" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>41060</v>
@@ -1190,7 +1180,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="59">
       <c r="A59" s="23"/>
       <c r="B59" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>40424</v>
@@ -1201,7 +1191,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="60">
       <c r="A60" s="25"/>
       <c r="B60" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="10"/>
@@ -1216,10 +1206,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="62">
       <c r="A62" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="10"/>
@@ -1227,10 +1217,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="63">
       <c r="A63" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="10"/>
@@ -1238,10 +1228,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="64">
       <c r="A64" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="10"/>
@@ -1249,10 +1239,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="65">
       <c r="A65" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -1267,10 +1257,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="67">
       <c r="A67" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -1278,10 +1268,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="68">
       <c r="A68" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C68" s="28"/>
       <c r="D68" s="10"/>
@@ -1289,10 +1279,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="69">
       <c r="A69" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -1300,10 +1290,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="70">
       <c r="A70" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
@@ -1342,7 +1332,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.43921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.44313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1363,34 +1353,34 @@
   <dimension ref="B1:AD3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <pane activePane="topRight" topLeftCell="A1" xSplit="993" ySplit="0"/>
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A4" activeCellId="0" pane="topRight" sqref="A4"/>
+      <pane activePane="topLeft" topLeftCell="N1" xSplit="12780" ySplit="0"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
+      <selection activeCell="N1" activeCellId="0" pane="topRight" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.60392156862745"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9725490196078"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4980392156863"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.95294117647059"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9725490196078"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.96078431372549"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9843137254902"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="1">
       <c r="B1" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
@@ -1399,7 +1389,7 @@
       <c r="L1" s="32"/>
       <c r="M1" s="32"/>
       <c r="N1" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O1" s="32"/>
       <c r="P1" s="32"/>
@@ -1413,7 +1403,7 @@
       <c r="X1" s="32"/>
       <c r="Y1" s="32"/>
       <c r="Z1" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA1" s="32"/>
       <c r="AB1" s="32"/>
@@ -1427,18 +1417,18 @@
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M2" s="32"/>
       <c r="N2" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O2" s="32"/>
       <c r="P2" s="32"/>
@@ -1459,89 +1449,89 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="3">
       <c r="B3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="E3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="F3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="H3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="I3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="J3" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="K3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="L3" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="O3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="33" t="s">
+      <c r="P3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="Q3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="R3" s="33" t="s">
         <v>52</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>54</v>
       </c>
       <c r="S3" s="34"/>
       <c r="T3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="W3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="33" t="s">
+      <c r="Z3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y3" s="33" t="s">
+      <c r="AA3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" s="33" t="s">
+      <c r="AB3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="AA3" s="33" t="s">
+      <c r="AC3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AB3" s="33" t="s">
+      <c r="AD3" s="33" t="s">
         <v>61</v>
-      </c>
-      <c r="AC3" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD3" s="33" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/test/input/CompanyValuesAndNotes.xlsx
+++ b/test/input/CompanyValuesAndNotes.xlsx
@@ -465,7 +465,6 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
@@ -479,6 +478,7 @@
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
@@ -569,19 +569,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="B72" activeCellId="0" pane="topLeft" sqref="B72"/>
+      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2823529411765"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2980392156863"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="1">
@@ -647,7 +647,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="6">
       <c r="A6" s="6"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="T6" s="8"/>
@@ -655,658 +655,642 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="7">
       <c r="A7" s="6"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="T7" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="8">
       <c r="A8" s="6"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="T8" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="T9" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
       <c r="T10" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="11">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="A11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>41060</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
       <c r="T11" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="12">
-      <c r="A12" s="12"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>41162</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="T12" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="13">
-      <c r="A13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>41060</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="T13" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="14">
-      <c r="A14" s="23"/>
-      <c r="B14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>41162</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="27"/>
       <c r="T14" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="9" t="s">
-        <v>17</v>
+      <c r="A15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="24"/>
       <c r="T15" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="16">
-      <c r="A16" s="25"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="27"/>
+      <c r="A16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
       <c r="T16" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="17">
       <c r="A17" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="24"/>
       <c r="T17" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="18">
       <c r="A18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="24"/>
-      <c r="T18" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="19">
-      <c r="A19" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="24"/>
-      <c r="T19" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="19">
+      <c r="A19" s="25"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="20">
       <c r="A20" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="21">
-      <c r="A21" s="25"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="27"/>
+      <c r="A21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="22">
       <c r="A22" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="23">
-      <c r="A23" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="24"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="24">
-      <c r="A24" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="25">
-      <c r="A25" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="26">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>41060</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="27">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>41162</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="28">
-      <c r="A28" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>41060</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="29">
-      <c r="A29" s="23"/>
-      <c r="B29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="4" t="n">
-        <v>41162</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="30">
-      <c r="A30" s="25"/>
-      <c r="B30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="10"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="30">
+      <c r="A30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>41234</v>
+      </c>
+      <c r="D30" s="23"/>
       <c r="E30" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="31">
-      <c r="A31" s="25"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="27"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="32">
+      <c r="A31" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="32">
       <c r="A32" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>41234</v>
-      </c>
-      <c r="D32" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="33">
       <c r="A33" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="34">
-      <c r="A34" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="24"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="35">
       <c r="A35" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="36">
-      <c r="A36" s="25"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="27"/>
+      <c r="A36" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="37">
       <c r="A37" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="38">
-      <c r="A38" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="24"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="39">
-      <c r="A39" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="24"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="40">
-      <c r="A40" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="41">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>41060</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="42">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>40792</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="43">
-      <c r="A43" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="4" t="n">
-        <v>41060</v>
-      </c>
-      <c r="D43" s="10"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="44">
-      <c r="A44" s="23"/>
-      <c r="B44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="4" t="n">
-        <v>40792</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="45">
-      <c r="A45" s="25"/>
-      <c r="B45" s="9" t="s">
-        <v>17</v>
+      <c r="A44" s="25"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="27"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="45">
+      <c r="A45" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="10"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="46">
-      <c r="A46" s="25"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="27"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="47">
+      <c r="A46" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="47">
       <c r="A47" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="10"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="48">
       <c r="A48" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="10"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="49">
-      <c r="A49" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="24"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="50">
       <c r="A50" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="51">
-      <c r="A51" s="25"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="27"/>
+      <c r="A51" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="52">
       <c r="A52" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="53">
-      <c r="A53" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="A53" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="24"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="54">
-      <c r="A54" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="24"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="55">
-      <c r="A55" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="31"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="56">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="A56" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="4" t="n">
+        <v>41060</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="57">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>40424</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="58">
-      <c r="A58" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="4" t="n">
-        <v>41060</v>
-      </c>
-      <c r="D58" s="10"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="59">
-      <c r="A59" s="23"/>
-      <c r="B59" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="4" t="n">
-        <v>40424</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="24"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="60">
-      <c r="A60" s="25"/>
-      <c r="B60" s="9" t="s">
-        <v>17</v>
+      <c r="A60" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="10"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="61">
-      <c r="A61" s="25"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="27"/>
+      <c r="A61" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="62">
       <c r="A62" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="10"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="63">
       <c r="A63" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="10"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
       <c r="E63" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="64">
-      <c r="A64" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="24"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="65">
       <c r="A65" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="66">
-      <c r="A66" s="25"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="27"/>
+      <c r="A66" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="28"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="67">
       <c r="A67" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="68">
-      <c r="A68" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="10" t="s">
+      <c r="A68" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="69">
-      <c r="A69" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="70">
-      <c r="A70" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="31"/>
-    </row>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="31"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="69"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="70"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="71"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="72"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="73"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="74"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B17:B20 B32:B35 B47:B50 B62:B65" type="list">
-      <formula1>DOC_SRC!$I$1:$I$21</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B15:B18 B30:B33 B45:B48 B60:B63" type="list">
+      <formula1>DOC_SRC!$I$1:$I$19</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1353,7 +1337,7 @@
   <dimension ref="B1:AD3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <pane activePane="topLeft" topLeftCell="N1" xSplit="12780" ySplit="0"/>
+      <pane activePane="topLeft" topLeftCell="N1" xSplit="11920" ySplit="0"/>
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
       <selection activeCell="N1" activeCellId="0" pane="topRight" sqref="N1"/>
     </sheetView>
@@ -1362,12 +1346,12 @@
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.60392156862745"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.5098039215686"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.96078431372549"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.96862745098039"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.9921568627451"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>
